--- a/data/trans_camb/P16B05-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B05-Provincia-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B05-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B05-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -606,27 +606,27 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>19,03</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,92</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,6; 61,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,78; 18,31</t>
         </is>
       </c>
     </row>
@@ -682,27 +682,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>26,37%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,22%</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,52; 212,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,97; 23,23</t>
         </is>
       </c>
     </row>
@@ -772,17 +772,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-8,57</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,93</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,68; -2,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,68; -1,87</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,93%</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,68; -2,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,68; -1,87</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>55,33</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>59,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,52</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,76</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,14; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,97; 28,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 36,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,52; 41,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,82; 45,97</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>136,32%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>146,35%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,84%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,63%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,35; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,97; 40,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 56,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,67; 73,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,18; 84,73</t>
         </is>
       </c>
     </row>
@@ -1240,17 +1240,17 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>-3,32</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,5</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,86; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,55; 0,0</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,32%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,5%</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,86; 0,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,55; 0,0</t>
         </is>
       </c>
     </row>
@@ -1391,22 +1391,22 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,58</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,58</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,58</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,58</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 57,16</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 57,16</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 55,51</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 55,51</t>
         </is>
       </c>
     </row>
@@ -1467,22 +1467,22 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,51%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,51%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,51%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,51%</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 133,39</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 133,39</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 124,72</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 124,73</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,61</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,11</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 27,46</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,37; 6,98</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,9</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,63</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,97</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,51; 5,98</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,49%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,19%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 37,85</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,16; 7,03</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,15</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,17</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,24</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,05; 6,43</t>
         </is>
       </c>
     </row>
@@ -1703,22 +1703,22 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,39</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,53</t>
         </is>
       </c>
     </row>
@@ -1741,22 +1741,22 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 18,55</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,01; 16,93</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 11,3</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 10,71</t>
         </is>
       </c>
     </row>
@@ -1769,32 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,81%</t>
         </is>
       </c>
     </row>
@@ -1817,22 +1817,22 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 23,55</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,01; 20,72</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 12,76</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 12,02</t>
         </is>
       </c>
     </row>
@@ -1849,32 +1849,32 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,77</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,96</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 13,32</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,81; 9,78</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,57; 8,87</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 7,94</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,25; 8,82</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 7,13</t>
         </is>
       </c>
     </row>
@@ -1925,32 +1925,32 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,13%</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,02; 15,47</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,93; 11,17</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,6; 9,77</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 8,76</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,34; 9,67</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 7,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B05-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B05-Provincia-trans_camb.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>21,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,72; 65,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,61; 18,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,75; 227,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,75; 22,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>55,33</t>
+          <t>59,41</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>17,52</t>
+          <t>17,83</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 100,0</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 28,62</t>
+          <t>-4,71; 28,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,52; 41,29</t>
+          <t>3,86; 43,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>136,32%</t>
+          <t>146,35%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,35; —</t>
+          <t>0,0; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 40,29</t>
+          <t>-4,71; 40,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,67; 73,18</t>
+          <t>4,12; 79,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_camb/P16B05-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B05-Provincia-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,12 +639,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 65,08</t>
+          <t>-6,3; 64,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 61,8</t>
+          <t>-9,37; 67,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 18,23</t>
+          <t>-2,82; 18,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 18,31</t>
+          <t>-5,66; 18,71</t>
         </is>
       </c>
     </row>
@@ -715,12 +715,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 227,21</t>
+          <t>-6,81; 221,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 212,95</t>
+          <t>-9,39; 229,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -735,19 +735,19 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 22,3</t>
+          <t>-2,95; 23,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 23,23</t>
+          <t>-5,84; 23,22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,68; -2,69</t>
+          <t>-23,14; -2,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,68; -1,87</t>
+          <t>-15,8; -1,85</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,68; -2,69</t>
+          <t>-23,14; -2,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -896,14 +896,14 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,68; -1,87</t>
+          <t>-15,8; -1,85</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 28,91</t>
+          <t>-4,7; 27,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,02</t>
+          <t>0,0; 29,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,86; 43,29</t>
+          <t>1,93; 42,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,82; 45,97</t>
+          <t>5,71; 44,5</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 40,74</t>
+          <t>-4,7; 39,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,3</t>
+          <t>0,0; 42,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,12; 79,48</t>
+          <t>2,05; 74,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,18; 84,73</t>
+          <t>6,05; 80,1</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 0,0</t>
+          <t>-16,85; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 0,0</t>
+          <t>-12,76; 0,0</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 0,0</t>
+          <t>-16,85; 0,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1364,14 +1364,14 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 0,0</t>
+          <t>-12,76; 0,0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,16</t>
+          <t>0,0; 58,34</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,16</t>
+          <t>0,0; 58,34</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,51</t>
+          <t>0,0; 56,97</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,51</t>
+          <t>0,0; 56,34</t>
         </is>
       </c>
     </row>
@@ -1505,29 +1505,29 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 133,39</t>
+          <t>0,0; 139,97</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 133,39</t>
+          <t>0,0; 139,97</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 124,72</t>
+          <t>0,0; 132,32</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 124,73</t>
+          <t>0,0; 129,03</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,46</t>
+          <t>0,0; 31,08</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-34,37; 6,98</t>
+          <t>-35,24; 6,39</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,9</t>
+          <t>0,0; 15,7</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,63</t>
+          <t>0,0; 16,43</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,97</t>
+          <t>0,0; 13,28</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 5,98</t>
+          <t>-9,03; 6,07</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,85</t>
+          <t>0,0; 45,06</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-36,16; 7,03</t>
+          <t>-36,91; 6,25</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,15</t>
+          <t>0,0; 18,64</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,17</t>
+          <t>0,0; 19,67</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,24</t>
+          <t>0,0; 15,31</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 6,43</t>
+          <t>-9,16; 6,61</t>
         </is>
       </c>
     </row>
@@ -1741,22 +1741,22 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>0,12; 18,55</t>
+          <t>0,11; 17,71</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 16,93</t>
+          <t>0,01; 17,63</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 11,3</t>
+          <t>-0,04; 11,01</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 10,71</t>
+          <t>-0,3; 10,84</t>
         </is>
       </c>
     </row>
@@ -1817,22 +1817,22 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>0,41; 23,55</t>
+          <t>0,13; 22,19</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 20,72</t>
+          <t>0,42; 21,82</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 12,76</t>
+          <t>-0,02; 12,5</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 12,02</t>
+          <t>-0,3; 12,39</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,95; 13,32</t>
+          <t>0,97; 13,28</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 9,78</t>
+          <t>-3,54; 10,43</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>1,57; 8,87</t>
+          <t>1,3; 8,65</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,35; 7,94</t>
+          <t>0,08; 7,79</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>2,25; 8,82</t>
+          <t>2,36; 8,39</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,2; 7,13</t>
+          <t>-0,33; 6,53</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>1,02; 15,47</t>
+          <t>0,8; 15,26</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 11,17</t>
+          <t>-3,68; 11,97</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>1,6; 9,77</t>
+          <t>1,36; 9,53</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>0,37; 8,76</t>
+          <t>0,08; 8,73</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>2,34; 9,67</t>
+          <t>2,44; 9,23</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>0,2; 7,81</t>
+          <t>-0,33; 7,15</t>
         </is>
       </c>
     </row>
